--- a/2. 기본편/2. 우리반 상장 제작/프로젝트코딩하기/상장목록.xlsx
+++ b/2. 기본편/2. 우리반 상장 제작/프로젝트코딩하기/상장목록.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sz/MyProjects/projects/CodingInLifeBook/RPA/PPT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sz/MyProjects/projects/CodingInLifeBook/2. 기본편/2. 우리반 상장 제작/프로젝트코딩하기/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E88BAA9A-39B4-384C-B69C-48ADD37BB0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28733DAD-D2AC-1442-A65C-1FFC897567AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{F977ADFE-B526-A64D-831C-56BB6AAE0EEB}"/>
+    <workbookView xWindow="28800" yWindow="-10300" windowWidth="51200" windowHeight="28300" xr2:uid="{F977ADFE-B526-A64D-831C-56BB6AAE0EEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>학생</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,47 +118,117 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>위 학생은 평소 성실하고 책임감 있는 자세로 학교 생활을 하였으며</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="Fira Code"/>
-        <family val="3"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11.3"/>
-        <color theme="1"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="2"/>
-        <charset val="129"/>
-      </rPr>
-      <t>친구들을 배려하는 따뜻한 마음을 가지고 있기에 이 상을 수여 합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="맑은 고딕"/>
-        <family val="2"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
+    <t>언제나 지혜롭상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>친화력이 최정상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자유로워 난 항상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하면 잘 해 막상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에너지 초특급 최상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후끈 따뜻해 넌 항상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>끝까지 완벽하상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예의 바르다 세상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네 목소리에 기분 좋상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼굴이 늘 웃상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>권OO</t>
+  </si>
+  <si>
+    <t>김OO</t>
+  </si>
+  <si>
+    <t>박OO</t>
+  </si>
+  <si>
+    <t>배OO</t>
+  </si>
+  <si>
+    <t>백OO</t>
+  </si>
+  <si>
+    <t>손OO</t>
+  </si>
+  <si>
+    <t>신OO</t>
+  </si>
+  <si>
+    <t>오OO</t>
+  </si>
+  <si>
+    <t>이OO</t>
+  </si>
+  <si>
+    <t>정OO</t>
+  </si>
+  <si>
+    <t>허OO</t>
+  </si>
+  <si>
+    <t>황OO</t>
+  </si>
+  <si>
+    <t>나OO</t>
+  </si>
+  <si>
+    <t>민OO</t>
+  </si>
+  <si>
+    <t>송OO</t>
+  </si>
+  <si>
+    <t>안OO</t>
+  </si>
+  <si>
+    <t>천OO</t>
+  </si>
+  <si>
+    <t>하OO</t>
+  </si>
+  <si>
+    <t>팍이썬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서OO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장OO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>임OO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위 학생은 우리반에서 성실하고 책임감 있는 자세로 생활하고, 따뜻한 마음으로 친구들을 배려하며 3학년을 훌륭히 마쳤기에 이 상을 수여합니다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,11 +260,12 @@
       <charset val="129"/>
     </font>
     <font>
-      <sz val="11.3"/>
-      <color theme="1"/>
-      <name val="Fira Code"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
-      <charset val="1"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -219,14 +290,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -543,16 +620,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{104097E7-2A9C-5C49-B5B3-EE282B0D9C8D}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="1"/>
-    <col min="2" max="2" width="17.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" style="1" customWidth="1"/>
     <col min="3" max="3" width="109.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -572,10 +649,10 @@
         <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -583,156 +660,362 @@
         <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
+      <c r="A5" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>8</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>26</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
+      <c r="A7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1" t="s">
-        <v>15</v>
+      <c r="A8" s="4" t="s">
+        <v>33</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
+      <c r="A9" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
+      <c r="C15" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>20</v>
-      </c>
+      <c r="C21" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4"/>
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4"/>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4"/>
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4"/>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="61" spans="2:2">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2">
+      <c r="B63" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C45">
+    <sortCondition ref="B1:B45"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
